--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll4-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll4-Notch4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H2">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I2">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J2">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N2">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O2">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P2">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q2">
-        <v>1010.724918006766</v>
+        <v>2219.522434528083</v>
       </c>
       <c r="R2">
-        <v>9096.524262060895</v>
+        <v>19975.70191075274</v>
       </c>
       <c r="S2">
-        <v>0.8488410170257608</v>
+        <v>0.900342163975305</v>
       </c>
       <c r="T2">
-        <v>0.8488410170257605</v>
+        <v>0.900342163975305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H3">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I3">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J3">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N3">
         <v>1.966766</v>
       </c>
       <c r="O3">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P3">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q3">
-        <v>18.39750918689711</v>
+        <v>29.17180669718844</v>
       </c>
       <c r="R3">
-        <v>165.577582682074</v>
+        <v>262.546260274696</v>
       </c>
       <c r="S3">
-        <v>0.01545085129566577</v>
+        <v>0.01183344991707658</v>
       </c>
       <c r="T3">
-        <v>0.01545085129566576</v>
+        <v>0.01183344991707658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H4">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I4">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J4">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N4">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O4">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P4">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q4">
-        <v>20.91830523900122</v>
+        <v>5.640766242017333</v>
       </c>
       <c r="R4">
-        <v>188.264747151011</v>
+        <v>50.766896178156</v>
       </c>
       <c r="S4">
-        <v>0.01756790119367595</v>
+        <v>0.002288158752446472</v>
       </c>
       <c r="T4">
-        <v>0.01756790119367595</v>
+        <v>0.002288158752446473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H5">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I5">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J5">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N5">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O5">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P5">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q5">
-        <v>28.82822973609878</v>
+        <v>20.11578277089422</v>
       </c>
       <c r="R5">
-        <v>259.454067624889</v>
+        <v>181.042044938048</v>
       </c>
       <c r="S5">
-        <v>0.02421092367693912</v>
+        <v>0.008159902827859843</v>
       </c>
       <c r="T5">
-        <v>0.02421092367693911</v>
+        <v>0.008159902827859842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H6">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I6">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J6">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N6">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O6">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P6">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q6">
-        <v>27.4880170563781</v>
+        <v>102.6749061321458</v>
       </c>
       <c r="R6">
-        <v>247.392153507403</v>
+        <v>924.074155189312</v>
       </c>
       <c r="S6">
-        <v>0.0230853676786479</v>
+        <v>0.04164974669095096</v>
       </c>
       <c r="T6">
-        <v>0.02308536767864789</v>
+        <v>0.04164974669095097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H7">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I7">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J7">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N7">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O7">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P7">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q7">
-        <v>31.57659460091311</v>
+        <v>34.67034531557422</v>
       </c>
       <c r="R7">
-        <v>284.1893514082179</v>
+        <v>312.033107840168</v>
       </c>
       <c r="S7">
-        <v>0.02651909357108558</v>
+        <v>0.01406391448970967</v>
       </c>
       <c r="T7">
-        <v>0.02651909357108557</v>
+        <v>0.01406391448970967</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.519023</v>
       </c>
       <c r="I8">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J8">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N8">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O8">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P8">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q8">
-        <v>6.231186219630223</v>
+        <v>8.629646346060557</v>
       </c>
       <c r="R8">
-        <v>56.080675976672</v>
+        <v>77.66681711454501</v>
       </c>
       <c r="S8">
-        <v>0.005233161222915862</v>
+        <v>0.003500588389955038</v>
       </c>
       <c r="T8">
-        <v>0.005233161222915861</v>
+        <v>0.003500588389955038</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.519023</v>
       </c>
       <c r="I9">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J9">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N9">
         <v>1.966766</v>
       </c>
       <c r="O9">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P9">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q9">
         <v>0.1134218655131111</v>
@@ -1013,10 +1013,10 @@
         <v>1.020796789618</v>
       </c>
       <c r="S9">
-        <v>9.525552399061736E-05</v>
+        <v>4.600921632941415E-05</v>
       </c>
       <c r="T9">
-        <v>9.525552399061734E-05</v>
+        <v>4.600921632941415E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.519023</v>
       </c>
       <c r="I10">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J10">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N10">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O10">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P10">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q10">
-        <v>0.1289627405252222</v>
+        <v>0.02193166288033333</v>
       </c>
       <c r="R10">
-        <v>1.160664664727</v>
+        <v>0.197384965923</v>
       </c>
       <c r="S10">
-        <v>0.0001083072771587948</v>
+        <v>8.896508775976667E-06</v>
       </c>
       <c r="T10">
-        <v>0.0001083072771587948</v>
+        <v>8.89650877597667E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.519023</v>
       </c>
       <c r="I11">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J11">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N11">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O11">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P11">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q11">
-        <v>0.1777279501747778</v>
+        <v>0.07821146053155556</v>
       </c>
       <c r="R11">
-        <v>1.599551551573</v>
+        <v>0.7039031447840001</v>
       </c>
       <c r="S11">
-        <v>0.0001492619517858292</v>
+        <v>3.1726228366609E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001492619517858292</v>
+        <v>3.172622836660899E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.519023</v>
       </c>
       <c r="I12">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J12">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N12">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O12">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P12">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q12">
-        <v>0.1694654500301111</v>
+        <v>0.3992066557884444</v>
       </c>
       <c r="R12">
-        <v>1.525189050271</v>
+        <v>3.592859902096</v>
       </c>
       <c r="S12">
-        <v>0.0001423228243328268</v>
+        <v>0.0001619369008190871</v>
       </c>
       <c r="T12">
-        <v>0.0001423228243328268</v>
+        <v>0.0001619369008190871</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.519023</v>
       </c>
       <c r="I13">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J13">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N13">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O13">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P13">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q13">
-        <v>0.1946718020251111</v>
+        <v>0.1348005382215555</v>
       </c>
       <c r="R13">
-        <v>1.752046218226</v>
+        <v>1.213204843994</v>
       </c>
       <c r="S13">
-        <v>0.0001634919724182823</v>
+        <v>5.468140641400467E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001634919724182823</v>
+        <v>5.468140641400468E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H14">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I14">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J14">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N14">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O14">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P14">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q14">
-        <v>14.53560872567111</v>
+        <v>2.303597801935556</v>
       </c>
       <c r="R14">
-        <v>130.82047853104</v>
+        <v>20.73238021742</v>
       </c>
       <c r="S14">
-        <v>0.01220749649481244</v>
+        <v>0.0009344470673775356</v>
       </c>
       <c r="T14">
-        <v>0.01220749649481243</v>
+        <v>0.0009344470673775354</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H15">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I15">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J15">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N15">
         <v>1.966766</v>
       </c>
       <c r="O15">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P15">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q15">
-        <v>0.2645813814455555</v>
+        <v>0.03027683286311111</v>
       </c>
       <c r="R15">
-        <v>2.38123243301</v>
+        <v>0.272491495768</v>
       </c>
       <c r="S15">
-        <v>0.0002222044048891477</v>
+        <v>1.228170024065922E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002222044048891476</v>
+        <v>1.228170024065922E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H16">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I16">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J16">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N16">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O16">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P16">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q16">
-        <v>0.3008338814461112</v>
+        <v>0.005854438105333333</v>
       </c>
       <c r="R16">
-        <v>2.707504933015</v>
+        <v>0.052689942948</v>
       </c>
       <c r="S16">
-        <v>0.0002526504821768079</v>
+        <v>2.374834059172744E-06</v>
       </c>
       <c r="T16">
-        <v>0.0002526504821768079</v>
+        <v>2.374834059172745E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H17">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I17">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J17">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N17">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O17">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P17">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q17">
-        <v>0.4145894300538889</v>
+        <v>0.02087776733155556</v>
       </c>
       <c r="R17">
-        <v>3.731304870484999</v>
+        <v>0.187899905984</v>
       </c>
       <c r="S17">
-        <v>0.0003481862445313905</v>
+        <v>8.468999423410798E-06</v>
       </c>
       <c r="T17">
-        <v>0.0003481862445313904</v>
+        <v>8.468999423410796E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H18">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I18">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J18">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N18">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O18">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P18">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q18">
-        <v>0.3953153360105555</v>
+        <v>0.1065642249884445</v>
       </c>
       <c r="R18">
-        <v>3.557838024094999</v>
+        <v>0.959078024896</v>
       </c>
       <c r="S18">
-        <v>0.0003319992075854153</v>
+        <v>4.322743642320837E-05</v>
       </c>
       <c r="T18">
-        <v>0.0003319992075854153</v>
+        <v>4.322743642320837E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H19">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I19">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J19">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N19">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O19">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P19">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q19">
-        <v>0.4541146812855555</v>
+        <v>0.03598365577155556</v>
       </c>
       <c r="R19">
-        <v>4.087032131569999</v>
+        <v>0.323852901944</v>
       </c>
       <c r="S19">
-        <v>0.0003813808891433502</v>
+        <v>1.459665466818912E-05</v>
       </c>
       <c r="T19">
-        <v>0.00038138088914335</v>
+        <v>1.459665466818912E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H20">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I20">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J20">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N20">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O20">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P20">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q20">
-        <v>14.57311424228622</v>
+        <v>35.99759799267667</v>
       </c>
       <c r="R20">
-        <v>131.158028180576</v>
+        <v>323.9783819340901</v>
       </c>
       <c r="S20">
-        <v>0.01223899489788974</v>
+        <v>0.0146023102855145</v>
       </c>
       <c r="T20">
-        <v>0.01223899489788973</v>
+        <v>0.01460231028551451</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H21">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I21">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J21">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N21">
         <v>1.966766</v>
       </c>
       <c r="O21">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P21">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q21">
-        <v>0.265264067777111</v>
+        <v>0.4731265401373334</v>
       </c>
       <c r="R21">
-        <v>2.387376609993999</v>
+        <v>4.258138861236001</v>
       </c>
       <c r="S21">
-        <v>0.0002227777479913738</v>
+        <v>0.0001919222650578737</v>
       </c>
       <c r="T21">
-        <v>0.0002227777479913737</v>
+        <v>0.0001919222650578737</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H22">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I22">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J22">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N22">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O22">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P22">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q22">
-        <v>0.3016101083212222</v>
+        <v>0.09148546209400001</v>
       </c>
       <c r="R22">
-        <v>2.714490974891</v>
+        <v>0.8233691588460001</v>
       </c>
       <c r="S22">
-        <v>0.0002533023837955108</v>
+        <v>3.711078456907146E-05</v>
       </c>
       <c r="T22">
-        <v>0.0002533023837955108</v>
+        <v>3.711078456907148E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H23">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I23">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J23">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N23">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O23">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P23">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q23">
-        <v>0.4156591747787777</v>
+        <v>0.3262503006186667</v>
       </c>
       <c r="R23">
-        <v>3.740932573008999</v>
+        <v>2.936252705568001</v>
       </c>
       <c r="S23">
-        <v>0.0003490846523810984</v>
+        <v>0.0001323423891045548</v>
       </c>
       <c r="T23">
-        <v>0.0003490846523810983</v>
+        <v>0.0001323423891045548</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H24">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I24">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J24">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N24">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O24">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P24">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q24">
-        <v>0.396335348738111</v>
+        <v>1.665245612021333</v>
       </c>
       <c r="R24">
-        <v>3.567018138642999</v>
+        <v>14.987210508192</v>
       </c>
       <c r="S24">
-        <v>0.0003328558488194565</v>
+        <v>0.0006755015468885988</v>
       </c>
       <c r="T24">
-        <v>0.0003328558488194564</v>
+        <v>0.000675501546888599</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H25">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I25">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J25">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N25">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O25">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P25">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q25">
-        <v>0.455286411073111</v>
+        <v>0.5623052659986667</v>
       </c>
       <c r="R25">
-        <v>4.097577699657999</v>
+        <v>5.060747393988001</v>
       </c>
       <c r="S25">
-        <v>0.0003823649475026805</v>
+        <v>0.0002280973294651974</v>
       </c>
       <c r="T25">
-        <v>0.0003823649475026804</v>
+        <v>0.0002280973294651975</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H26">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I26">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J26">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.01682133333333</v>
+        <v>49.88013833333334</v>
       </c>
       <c r="N26">
-        <v>108.050464</v>
+        <v>149.640415</v>
       </c>
       <c r="O26">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538029</v>
       </c>
       <c r="P26">
-        <v>0.888210824651586</v>
+        <v>0.9202778328538028</v>
       </c>
       <c r="Q26">
-        <v>11.53818080384711</v>
+        <v>2.214545128297777</v>
       </c>
       <c r="R26">
-        <v>103.843627234624</v>
+        <v>19.93090615468</v>
       </c>
       <c r="S26">
-        <v>0.009690155010207363</v>
+        <v>0.0008983231356508118</v>
       </c>
       <c r="T26">
-        <v>0.00969015501020736</v>
+        <v>0.0008983231356508118</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H27">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I27">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J27">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.6555886666666666</v>
+        <v>0.6555886666666667</v>
       </c>
       <c r="N27">
         <v>1.966766</v>
       </c>
       <c r="O27">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="P27">
-        <v>0.01616747199490694</v>
+        <v>0.0120954700119653</v>
       </c>
       <c r="Q27">
-        <v>0.2100213258395555</v>
+        <v>0.02910638856355555</v>
       </c>
       <c r="R27">
-        <v>1.890191932556</v>
+        <v>0.261957497072</v>
       </c>
       <c r="S27">
-        <v>0.0001763830223700427</v>
+        <v>1.18069132607752E-05</v>
       </c>
       <c r="T27">
-        <v>0.0001763830223700426</v>
+        <v>1.18069132607752E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>27</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H28">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I28">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J28">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7454163333333335</v>
+        <v>0.126767</v>
       </c>
       <c r="N28">
-        <v>2.236249</v>
+        <v>0.380301</v>
       </c>
       <c r="O28">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379126</v>
       </c>
       <c r="P28">
-        <v>0.01838271206698645</v>
+        <v>0.002338823907379127</v>
       </c>
       <c r="Q28">
-        <v>0.2387980979371112</v>
+        <v>0.005628116754666665</v>
       </c>
       <c r="R28">
-        <v>2.149182881434</v>
+        <v>0.05065305079199999</v>
       </c>
       <c r="S28">
-        <v>0.0002005507301793837</v>
+        <v>2.283027528433006E-06</v>
       </c>
       <c r="T28">
-        <v>0.0002005507301793836</v>
+        <v>2.283027528433006E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H29">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I29">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J29">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.027283666666667</v>
+        <v>0.4520693333333334</v>
       </c>
       <c r="N29">
-        <v>3.081851</v>
+        <v>1.356208</v>
       </c>
       <c r="O29">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900294</v>
       </c>
       <c r="P29">
-        <v>0.02533384232540931</v>
+        <v>0.008340582048900293</v>
       </c>
       <c r="Q29">
-        <v>0.3290958014628889</v>
+        <v>0.02007067288177778</v>
       </c>
       <c r="R29">
-        <v>2.961862213166</v>
+        <v>0.180636055936</v>
       </c>
       <c r="S29">
-        <v>0.0002763857997718786</v>
+        <v>8.141604145876742E-06</v>
       </c>
       <c r="T29">
-        <v>0.0002763857997718785</v>
+        <v>8.14160414587674E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H30">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I30">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J30">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.9795256666666665</v>
+        <v>2.307450666666667</v>
       </c>
       <c r="N30">
-        <v>2.938577</v>
+        <v>6.922352</v>
       </c>
       <c r="O30">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="P30">
-        <v>0.02415608229569642</v>
+        <v>0.04257196892170599</v>
       </c>
       <c r="Q30">
-        <v>0.3137962714535555</v>
+        <v>0.1024446563982222</v>
       </c>
       <c r="R30">
-        <v>2.824166443081999</v>
+        <v>0.9220019075839998</v>
       </c>
       <c r="S30">
-        <v>0.0002635367363108234</v>
+        <v>4.155634662413003E-05</v>
       </c>
       <c r="T30">
-        <v>0.0002635367363108233</v>
+        <v>4.155634662413003E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H31">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I31">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J31">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.125220666666667</v>
+        <v>0.7791593333333333</v>
       </c>
       <c r="N31">
-        <v>3.375662</v>
+        <v>2.337478</v>
       </c>
       <c r="O31">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="P31">
-        <v>0.02774906666541499</v>
+        <v>0.01437532225624636</v>
       </c>
       <c r="Q31">
-        <v>0.3604704417435555</v>
+        <v>0.03459259664177777</v>
       </c>
       <c r="R31">
-        <v>3.244233975692</v>
+        <v>0.311333369776</v>
       </c>
       <c r="S31">
-        <v>0.0003027352852651017</v>
+        <v>1.403237598929933E-05</v>
       </c>
       <c r="T31">
-        <v>0.0003027352852651017</v>
+        <v>1.403237598929934E-05</v>
       </c>
     </row>
   </sheetData>
